--- a/Document/sadyrinth_gde_data_02.xlsx
+++ b/Document/sadyrinth_gde_data_02.xlsx
@@ -293,7 +293,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="0">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4">
@@ -313,7 +313,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5">
@@ -333,7 +333,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6">
@@ -353,7 +353,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="0">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
@@ -373,7 +373,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8">
@@ -393,7 +393,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
@@ -413,7 +413,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="0">
-        <v>0</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10">
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="0">
-        <v>0</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/Document/sadyrinth_gde_data_02.xlsx
+++ b/Document/sadyrinth_gde_data_02.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>GDE_FIELD_NAMES</t>
   </si>
@@ -30,6 +30,12 @@
     <t>auto_selected_stage_id</t>
   </si>
   <si>
+    <t>show_remain_fuel</t>
+  </si>
+  <si>
+    <t>long_tap_stage_record_clear</t>
+  </si>
+  <si>
     <t>GDE_FIELD_TYPES</t>
   </si>
   <si>
@@ -42,10 +48,13 @@
     <t>list_Stage</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>common</t>
   </si>
   <si>
-    <t>0.2</t>
+    <t>0.3</t>
   </si>
   <si>
     <t>"stage_01_01","stage_01_02","stage_01_03","stage_01_04","stage_01_05","stage_01_06","stage_01_07","stage_01_08"</t>
@@ -67,6 +76,9 @@
   </si>
   <si>
     <t>base_fuel</t>
+  </si>
+  <si>
+    <t>stage_lock</t>
   </si>
   <si>
     <t>gameobject</t>
@@ -166,7 +178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -188,39 +200,57 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>6</v>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -230,7 +260,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -241,47 +271,53 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0">
         <v>10000</v>
@@ -295,13 +331,16 @@
       <c r="F3" s="0">
         <v>240</v>
       </c>
+      <c r="G3" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="0">
         <v>10000</v>
@@ -315,13 +354,16 @@
       <c r="F4" s="0">
         <v>310</v>
       </c>
+      <c r="G4" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0">
         <v>10000</v>
@@ -335,13 +377,16 @@
       <c r="F5" s="0">
         <v>220</v>
       </c>
+      <c r="G5" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0">
         <v>10000</v>
@@ -355,13 +400,16 @@
       <c r="F6" s="0">
         <v>160</v>
       </c>
+      <c r="G6" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
@@ -375,13 +423,16 @@
       <c r="F7" s="0">
         <v>230</v>
       </c>
+      <c r="G7" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0">
         <v>0</v>
@@ -395,13 +446,16 @@
       <c r="F8" s="0">
         <v>150</v>
       </c>
+      <c r="G8" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
@@ -415,13 +469,16 @@
       <c r="F9" s="0">
         <v>260</v>
       </c>
+      <c r="G9" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C10" s="0">
         <v>0</v>
@@ -434,6 +491,9 @@
       </c>
       <c r="F10" s="0">
         <v>310</v>
+      </c>
+      <c r="G10" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
